--- a/uploads/productos.xlsx
+++ b/uploads/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E6F280-6707-40BD-A342-F322BD1B0A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C77F0A-80D4-4E00-85A7-EA6090C4A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,13 +467,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
@@ -481,91 +483,91 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>18900</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>40</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>32500</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>13500</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>

--- a/uploads/productos.xlsx
+++ b/uploads/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sistema_inventario_motos\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C77F0A-80D4-4E00-85A7-EA6090C4A503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7817B861-C2B1-4DB0-9BE3-644788B9C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>nombre</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>codigo_sku</t>
+  </si>
+  <si>
+    <t>dwddsdxsf</t>
+  </si>
+  <si>
+    <t>dxedxwfw</t>
+  </si>
+  <si>
+    <t>dxedxw</t>
+  </si>
+  <si>
+    <t>dxw</t>
+  </si>
+  <si>
+    <t>bvcvsc</t>
   </si>
 </sst>
 </file>
@@ -154,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +592,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3433</v>
+      </c>
+      <c r="F5" s="4">
+        <v>355</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/productos.xlsx
+++ b/uploads/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sistema_inventario_motos\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7817B861-C2B1-4DB0-9BE3-644788B9C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30377B03-9871-4C98-A39D-A1B06FF0330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>nombre</t>
   </si>
@@ -91,21 +91,6 @@
   </si>
   <si>
     <t>codigo_sku</t>
-  </si>
-  <si>
-    <t>dwddsdxsf</t>
-  </si>
-  <si>
-    <t>dxedxwfw</t>
-  </si>
-  <si>
-    <t>dxedxw</t>
-  </si>
-  <si>
-    <t>dxw</t>
-  </si>
-  <si>
-    <t>bvcvsc</t>
   </si>
 </sst>
 </file>
@@ -169,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,10 +163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,29 +573,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3433</v>
-      </c>
-      <c r="F5" s="4">
-        <v>355</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
